--- a/document/docs/财富酒庄-电商工作量.xlsx
+++ b/document/docs/财富酒庄-电商工作量.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -110,23 +106,179 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>前端登录注册界面布局、逻辑控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端验证码逻辑控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台登录注册接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码发送接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>前端登录注册界面布局、逻辑控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端验证码逻辑控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台登录注册接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码发送接口</t>
+    <t>推荐注册（分销功能入口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息（含前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码（含前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单、订单详情（含前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址（含前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的佣金（含前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄门户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄后台管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统操作员列表/详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品查询/列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品新增/编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品上下架管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态新增/编辑/删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告新增/编辑/删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细/编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销因子列表查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销因子新增/关联/编辑/删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表/详情/权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分销结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,15 +330,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,37 +352,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,200 +756,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>42939</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>42941</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>42943</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>42945</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="F16" s="7">
+        <v>42952</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="30">
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="30">
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="30">
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1">
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" s="4" customFormat="1">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" s="4" customFormat="1">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" s="4" customFormat="1">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" s="4" customFormat="1">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" s="4" customFormat="1">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4" s="4" customFormat="1">
-      <c r="D22" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>42958</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>42963</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>42968</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>42970</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>42972</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>42975</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>42978</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>42981</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>42984</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="E41">
+        <f>SUM(E2:E40)</f>
+        <v>47.5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B38:B40"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/document/docs/财富酒庄-电商工作量.xlsx
+++ b/document/docs/财富酒庄-电商工作量.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作量安排" sheetId="1" r:id="rId1"/>
+    <sheet name="客户提前准备事项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,6 +280,54 @@
   </si>
   <si>
     <t>酒庄用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买域名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名备案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请微信公众号，并提交审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号申请微信支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请短信服务，并充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请酒庄微信公众号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄介绍，包括文字、图片、视频</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,9 +438,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -399,9 +445,6 @@
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -418,6 +461,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -758,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -773,616 +825,628 @@
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42939</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>42941</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>42943</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="30">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>42945</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42952</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="30">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>42958</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>42963</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>42968</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>42970</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>42952</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>42972</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>42975</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>42978</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>42958</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>42963</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>42968</v>
-      </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>42970</v>
-      </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>42972</v>
-      </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>42981</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
-        <v>42975</v>
-      </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="D38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="7">
-        <v>42978</v>
-      </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7">
-        <v>42981</v>
-      </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
         <v>42984</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
       <c r="E41">
         <f>SUM(E2:E40)</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
@@ -1390,18 +1454,6 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1412,4 +1464,117 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>